--- a/biology/Zoologie/Bothremydidae/Bothremydidae.xlsx
+++ b/biology/Zoologie/Bothremydidae/Bothremydidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bothremydidae forment une  famille éteinte de tortues appartenant au sous-ordre des Pleurodira et à l'ordre des Testudines. Les pleurodires (Pleurodira) sont caractérisés par leur manière de tourner leur cou pour rentrer la tête dans leur carapace : ils doivent plier leur cou sur le côté, formant ainsi un S horizontal.
-Cette famille a disparu à l'Oligocène ou au Miocène[1].
-Les Bothremydidae vivaient en général en eau douce[2], mais plusieurs espèces étaient marines[3], sans avoir de rapport avec les tortues de mer actuelles.
+Cette famille a disparu à l'Oligocène ou au Miocène.
+Les Bothremydidae vivaient en général en eau douce, mais plusieurs espèces étaient marines, sans avoir de rapport avec les tortues de mer actuelles.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
           <t>Liste des sous-familles et tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille est classiquement divisée en deux sous-familles : les Bothremydinae et les Kurmademydinae, plus un certain nombre de tribus :
-Sous-famille des Bothremydinae Gaffney et al. 2006[4].
+Sous-famille des Bothremydinae Gaffney et al. 2006.
 Tribu des Bothremydini Gaffney et al., 2006
 Sous-tribu des Bothremydina Gaffney et al., 2006
 Araiochelys Gaffney et al., 2006
 Araiochelys hirayamai Gaffney et al., 2006
-Bothremys Leidy, 1865[5] (synonyme : Karkaemys)
+Bothremys Leidy, 1865 (synonyme : Karkaemys)
 Bothremys arabicus (Zalmout et al., 2005)
 Bothremys cooki Leidy, 1865
 Bothremys kellyi Gaffney et al., 2006
@@ -533,25 +547,25 @@
 Rosasia soutoi Carrington da Costa, 1940
 Inaechelys Carvalho, 2016
 Inaechelys pernambucensis Caralho, 2016
-Zolhafah Lapparent de Broin et Werner, 1998[6]
+Zolhafah Lapparent de Broin et Werner, 1998
 Zolhafah bella Lapparent de Broin et Werner, 1998
 Sous-tribu Foxemydina Gaffney et al., 2006
 Elochelys Nopsca, 1931
 Elochelys convenarum Laurent et al., 2002
 Elochelys perfecta Nopsca, 1931
-Foxemys Tong et al., 1998[7]
-Foxemys mechinorum Tong et al., 1998[7]
-Polysternon Portis, 1882[8]
-Polysternon atlanticum Lapparent de Broin et Murelaga, 1996[9]
+Foxemys Tong et al., 1998
+Foxemys mechinorum Tong et al., 1998
+Polysternon Portis, 1882
+Polysternon atlanticum Lapparent de Broin et Murelaga, 1996
 Polysternon provinciale (Matheron, 1869)
 Puentemys Cadena et al., 2012
 Puentemys mushaisaensis Cadena et al., 2012
 Tribu Taphrosphyini Gaffney et al., 2006
 Sous-tribu Nigermydina Gaffney et al., 2006
-Arenila Lapparent de Broin et Werner, 1998[6]
+Arenila Lapparent de Broin et Werner, 1998
 Arenila krebsi Lapparent de Broin et Werner, 1998
 Sous-tribu des Taphrosphyina Gaffney et al., 2006
-Azabbaremys Gaffney et al., 2001[10]
+Azabbaremys Gaffney et al., 2001
 Azabbaremys moragjonesi Gaffney et al., 2001
 Phosphatochelys Gaffney et Tong, 2003
 Phosphatochelys tedfordi Gaffney et Tong, 2003
@@ -565,7 +579,7 @@
 Ummulisani Gaffney et al., 2006
 Ummulisani rutgersensis Gaffney et al., 2006
 Crassachelys (nomen dubium)
-Crassachelys neurirregularis Bergounioux, 1952[11]
+Crassachelys neurirregularis Bergounioux, 1952
 Eusarkia (nomen dubium)
 Gafsachelys Stefano, 1903 (nomen dubium)
 Labrostochelys Gaffney et al., 2006
@@ -573,7 +587,7 @@
 Tribu des Cearachelyini Gaffney et al., 2006
 Cearachelys Gaffney et al.,
 Cearachelys placidoi Gaffney et al., 2001
-Galianemys Gaffney et al., 2002[12]
+Galianemys Gaffney et al., 2002
 Galianemys emringeri Gaffney et al., 2002
 Galianemys whitei Gaffney et al., 2002
 Sous-famille des Kurmademydinae Gaffney et al., 2006
@@ -611,9 +625,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cladogramme établi par Gaffney, Tong et Meylan en 2006 montre une classification différente avec la sous-famille des Kurmademydinae reléguée au rang de tribu : Kurmademydini[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le cladogramme établi par Gaffney, Tong et Meylan en 2006 montre une classification différente avec la sous-famille des Kurmademydinae reléguée au rang de tribu : Kurmademydini : 
 Chelidae
 Pelomedusoides
 Araripemys
